--- a/2.开发计划/开发计划.xlsx
+++ b/2.开发计划/开发计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>事项</t>
   </si>
@@ -48,7 +48,40 @@
     <t>黄友乾</t>
   </si>
   <si>
-    <t>未开始</t>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>完成布局开发</t>
+  </si>
+  <si>
+    <t>金融网站主页内容填充</t>
+  </si>
+  <si>
+    <t>完成图片及内容填充</t>
+  </si>
+  <si>
+    <t>金融网站主页ui设计</t>
+  </si>
+  <si>
+    <t>吴成垚</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>整体效果ok，部分细节需优化</t>
+  </si>
+  <si>
+    <t>公众号小程序研究</t>
+  </si>
+  <si>
+    <t>公众号需认证，认证后继续</t>
+  </si>
+  <si>
+    <t>金融网站主页ui实现</t>
+  </si>
+  <si>
+    <t>金融网站主页ui优化</t>
   </si>
 </sst>
 </file>
@@ -58,10 +91,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,50 +104,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,6 +142,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -159,25 +186,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,6 +208,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -207,15 +241,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,67 +262,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,109 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,17 +447,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,6 +470,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,17 +537,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,148 +552,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,17 +1052,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="56.7777777777778" customWidth="1"/>
     <col min="2" max="3" width="7.66666666666667" customWidth="1"/>
     <col min="4" max="7" width="14.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="49.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1065,7 +1092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1081,6 +1108,135 @@
       <c r="E2" s="1">
         <v>44176</v>
       </c>
+      <c r="F2" s="1">
+        <v>44172</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44176</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44179</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44183</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44179</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44183</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44186</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44190</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44186</v>
+      </c>
+      <c r="G4" s="1">
+        <v>44190</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44186</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44190</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44186</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44190</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44193</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44196</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44193</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44193</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44193</v>
+      </c>
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
